--- a/data/temp.xlsx
+++ b/data/temp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gh13047/Desktop/misc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gh13047/repo/temperature-blanket/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26FBB4F-618F-934E-BFB5-6283BF0AD142}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6237CBA-FE04-C04D-805C-589309BF7917}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{939A8556-41CE-484B-B4D9-8A4445F98A8B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3837" uniqueCount="781">
   <si>
     <t>Heating</t>
   </si>
@@ -1942,6 +1942,432 @@
   </si>
   <si>
     <t>avg</t>
+  </si>
+  <si>
+    <t>15.5 </t>
+  </si>
+  <si>
+    <t>23.3 </t>
+  </si>
+  <si>
+    <t>24.3 </t>
+  </si>
+  <si>
+    <t>22.1 </t>
+  </si>
+  <si>
+    <t>23.7 </t>
+  </si>
+  <si>
+    <t>16.4 </t>
+  </si>
+  <si>
+    <t>17.5 </t>
+  </si>
+  <si>
+    <t>-2.2 </t>
+  </si>
+  <si>
+    <t>+7.9 </t>
+  </si>
+  <si>
+    <t>+7.5 </t>
+  </si>
+  <si>
+    <t>+4.8 </t>
+  </si>
+  <si>
+    <t>+2.5 </t>
+  </si>
+  <si>
+    <t>+0.2 </t>
+  </si>
+  <si>
+    <t>-3.4 </t>
+  </si>
+  <si>
+    <t>14.0 </t>
+  </si>
+  <si>
+    <t>1011.1 </t>
+  </si>
+  <si>
+    <t>0996.5 </t>
+  </si>
+  <si>
+    <t>0992.1 </t>
+  </si>
+  <si>
+    <t>0992.5 </t>
+  </si>
+  <si>
+    <t>1014.2 </t>
+  </si>
+  <si>
+    <t>1008.7 </t>
+  </si>
+  <si>
+    <t>1008.8 </t>
+  </si>
+  <si>
+    <t>1001.5 </t>
+  </si>
+  <si>
+    <t>1008.0 </t>
+  </si>
+  <si>
+    <t>1017.1 </t>
+  </si>
+  <si>
+    <t>1019.1 </t>
+  </si>
+  <si>
+    <t>1016.6 </t>
+  </si>
+  <si>
+    <t>1013.0 </t>
+  </si>
+  <si>
+    <t>1016.4 </t>
+  </si>
+  <si>
+    <t>1007.6 </t>
+  </si>
+  <si>
+    <t>1011.4 </t>
+  </si>
+  <si>
+    <t>1010.3 </t>
+  </si>
+  <si>
+    <t>~168 </t>
+  </si>
+  <si>
+    <t>~194 </t>
+  </si>
+  <si>
+    <t>~202 </t>
+  </si>
+  <si>
+    <t>~161 </t>
+  </si>
+  <si>
+    <t>~016 </t>
+  </si>
+  <si>
+    <t>~076 </t>
+  </si>
+  <si>
+    <t>~071 </t>
+  </si>
+  <si>
+    <t>~033 </t>
+  </si>
+  <si>
+    <t>~153 </t>
+  </si>
+  <si>
+    <t>~208 </t>
+  </si>
+  <si>
+    <t>~157 </t>
+  </si>
+  <si>
+    <t>~281 </t>
+  </si>
+  <si>
+    <t>~247 </t>
+  </si>
+  <si>
+    <t>~261 </t>
+  </si>
+  <si>
+    <t>~067 </t>
+  </si>
+  <si>
+    <t>33.4 </t>
+  </si>
+  <si>
+    <t>~199 </t>
+  </si>
+  <si>
+    <t>~167 </t>
+  </si>
+  <si>
+    <t>~011 </t>
+  </si>
+  <si>
+    <t>~121 </t>
+  </si>
+  <si>
+    <t>~061 </t>
+  </si>
+  <si>
+    <t>~025 </t>
+  </si>
+  <si>
+    <t>~330 </t>
+  </si>
+  <si>
+    <t>~169 </t>
+  </si>
+  <si>
+    <t>~200 </t>
+  </si>
+  <si>
+    <t>~170 </t>
+  </si>
+  <si>
+    <t>~287 </t>
+  </si>
+  <si>
+    <t>~137 </t>
+  </si>
+  <si>
+    <t>~038 </t>
+  </si>
+  <si>
+    <t>apr</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>15.8 </t>
+  </si>
+  <si>
+    <t>22.6 </t>
+  </si>
+  <si>
+    <t>27.3 </t>
+  </si>
+  <si>
+    <t>17.1 </t>
+  </si>
+  <si>
+    <t>16.6 </t>
+  </si>
+  <si>
+    <t>15.6 </t>
+  </si>
+  <si>
+    <t>18.3 </t>
+  </si>
+  <si>
+    <t>21.3 </t>
+  </si>
+  <si>
+    <t>15.9 </t>
+  </si>
+  <si>
+    <t>18.6 </t>
+  </si>
+  <si>
+    <t>19.4 </t>
+  </si>
+  <si>
+    <t>23.2 </t>
+  </si>
+  <si>
+    <t>22.7 </t>
+  </si>
+  <si>
+    <t>23.5 </t>
+  </si>
+  <si>
+    <t>22.9 </t>
+  </si>
+  <si>
+    <t>20.9 </t>
+  </si>
+  <si>
+    <t>19.0 </t>
+  </si>
+  <si>
+    <t>16.0 </t>
+  </si>
+  <si>
+    <t>17.7 </t>
+  </si>
+  <si>
+    <t>19.2 </t>
+  </si>
+  <si>
+    <t>16.2 </t>
+  </si>
+  <si>
+    <t>17.6 </t>
+  </si>
+  <si>
+    <t>18.1 </t>
+  </si>
+  <si>
+    <t>16.8 </t>
+  </si>
+  <si>
+    <t>15.1 </t>
+  </si>
+  <si>
+    <t>18.0 </t>
+  </si>
+  <si>
+    <t>+5.0 </t>
+  </si>
+  <si>
+    <t>+6.3 </t>
+  </si>
+  <si>
+    <t>-0.0 </t>
+  </si>
+  <si>
+    <t>+3.0 </t>
+  </si>
+  <si>
+    <t>+4.0 </t>
+  </si>
+  <si>
+    <t>+3.5 </t>
+  </si>
+  <si>
+    <t>-0.9 </t>
+  </si>
+  <si>
+    <t>+4.5 </t>
+  </si>
+  <si>
+    <t>+2.9 </t>
+  </si>
+  <si>
+    <t>15.2 </t>
+  </si>
+  <si>
+    <t>16.9 </t>
+  </si>
+  <si>
+    <t>15.7 </t>
+  </si>
+  <si>
+    <t>14.6 </t>
+  </si>
+  <si>
+    <t>HOT </t>
+  </si>
+  <si>
+    <t>1009.0 </t>
+  </si>
+  <si>
+    <t>1005.7 </t>
+  </si>
+  <si>
+    <t>1019.4 </t>
+  </si>
+  <si>
+    <t>1023.8 </t>
+  </si>
+  <si>
+    <t>1025.5 </t>
+  </si>
+  <si>
+    <t>1022.5 </t>
+  </si>
+  <si>
+    <t>1011.7 </t>
+  </si>
+  <si>
+    <t>1010.1 </t>
+  </si>
+  <si>
+    <t>1016.0 </t>
+  </si>
+  <si>
+    <t>1022.2 </t>
+  </si>
+  <si>
+    <t>1022.3 </t>
+  </si>
+  <si>
+    <t>1028.0 </t>
+  </si>
+  <si>
+    <t>1023.7 </t>
+  </si>
+  <si>
+    <t>1021.2 </t>
+  </si>
+  <si>
+    <t>1017.0 </t>
+  </si>
+  <si>
+    <t>1018.3 </t>
+  </si>
+  <si>
+    <t>1023.4 </t>
+  </si>
+  <si>
+    <t>1016.2 </t>
+  </si>
+  <si>
+    <t>1014.0 </t>
+  </si>
+  <si>
+    <t>1015.1 </t>
+  </si>
+  <si>
+    <t>~223 </t>
+  </si>
+  <si>
+    <t>~283 </t>
+  </si>
+  <si>
+    <t>~242 </t>
+  </si>
+  <si>
+    <t>~158 </t>
+  </si>
+  <si>
+    <t>~278 </t>
+  </si>
+  <si>
+    <t>~032 </t>
+  </si>
+  <si>
+    <t>~037 </t>
+  </si>
+  <si>
+    <t>~062 </t>
+  </si>
+  <si>
+    <t>~099 </t>
+  </si>
+  <si>
+    <t>~140 </t>
+  </si>
+  <si>
+    <t>~188 </t>
+  </si>
+  <si>
+    <t>~219 </t>
+  </si>
+  <si>
+    <t>~309 </t>
+  </si>
+  <si>
+    <t>~052 </t>
+  </si>
+  <si>
+    <t>~024 </t>
+  </si>
+  <si>
+    <t>~051 </t>
+  </si>
+  <si>
+    <t>~097 </t>
+  </si>
+  <si>
+    <t>strand1</t>
+  </si>
+  <si>
+    <t>strand2</t>
   </si>
 </sst>
 </file>
@@ -1983,13 +2409,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2304,16 +2731,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0722BCC-74A4-B14A-8E30-8464FB6E3777}">
-  <dimension ref="A1:S152"/>
+  <dimension ref="A1:U213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>630</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2370,9 +2797,15 @@
       <c r="S1" s="2" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B2" s="1">
@@ -2430,8 +2863,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B3" s="1">
@@ -2489,8 +2922,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B4" s="1">
@@ -2548,8 +2981,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B5" s="1">
@@ -2607,8 +3040,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B6" s="1">
@@ -2666,8 +3099,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B7" s="1">
@@ -2725,8 +3158,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B8" s="1">
@@ -2784,8 +3217,8 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B9" s="1">
@@ -2843,8 +3276,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B10" s="1">
@@ -2902,8 +3335,8 @@
         <v>226</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B11" s="1">
@@ -2961,8 +3394,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B12" s="1">
@@ -3020,8 +3453,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B13" s="1">
@@ -3079,8 +3512,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B14" s="1">
@@ -3138,8 +3571,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B15" s="1">
@@ -3197,8 +3630,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B16" s="1">
@@ -3257,7 +3690,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B17" s="1">
@@ -3316,7 +3749,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B18" s="1">
@@ -3375,7 +3808,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B19" s="1">
@@ -3434,7 +3867,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B20" s="1">
@@ -3493,7 +3926,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B21" s="1">
@@ -3552,7 +3985,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B22" s="1">
@@ -3611,7 +4044,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B23" s="1">
@@ -3670,7 +4103,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B24" s="1">
@@ -3729,7 +4162,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B25" s="1">
@@ -3788,7 +4221,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B26" s="1">
@@ -3847,7 +4280,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B27" s="1">
@@ -3906,7 +4339,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B28" s="1">
@@ -3965,7 +4398,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B29" s="1">
@@ -4024,7 +4457,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B30" s="1">
@@ -4083,7 +4516,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="4" t="s">
         <v>634</v>
       </c>
       <c r="B31" s="1">
@@ -4142,7 +4575,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B32" s="1">
@@ -4201,7 +4634,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B33" s="1">
@@ -4260,7 +4693,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B34" s="1">
@@ -4319,7 +4752,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B35" s="1">
@@ -4378,7 +4811,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B36" s="1">
@@ -4437,7 +4870,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B37" s="1">
@@ -4496,7 +4929,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B38" s="1">
@@ -4555,7 +4988,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B39" s="1">
@@ -4614,7 +5047,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B40" s="1">
@@ -4673,7 +5106,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B41" s="1">
@@ -4732,7 +5165,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B42" s="1">
@@ -4791,7 +5224,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B43" s="1">
@@ -4850,7 +5283,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B44" s="1">
@@ -4909,7 +5342,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B45" s="1">
@@ -4968,7 +5401,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B46" s="1">
@@ -5027,7 +5460,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B47" s="1">
@@ -5086,7 +5519,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B48" s="1">
@@ -5145,7 +5578,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B49" s="1">
@@ -5204,7 +5637,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B50" s="1">
@@ -5263,7 +5696,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B51" s="1">
@@ -5322,7 +5755,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B52" s="1">
@@ -5381,7 +5814,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B53" s="1">
@@ -5440,7 +5873,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B54" s="1">
@@ -5499,7 +5932,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B55" s="1">
@@ -5558,7 +5991,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B56" s="1">
@@ -5617,7 +6050,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B57" s="1">
@@ -5676,7 +6109,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B58" s="1">
@@ -5735,7 +6168,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B59" s="1">
@@ -5794,7 +6227,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B60" s="1">
@@ -5853,7 +6286,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B61" s="1">
@@ -5912,7 +6345,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="4" t="s">
         <v>635</v>
       </c>
       <c r="B62" s="1">
@@ -5971,7 +6404,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B63" s="1">
@@ -6030,7 +6463,7 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="A64" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B64" s="1">
@@ -6089,7 +6522,7 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B65" s="1">
@@ -6148,7 +6581,7 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="A66" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B66" s="1">
@@ -6207,7 +6640,7 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="A67" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B67" s="1">
@@ -6266,7 +6699,7 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B68" s="1">
@@ -6325,7 +6758,7 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B69" s="1">
@@ -6384,7 +6817,7 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="A70" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B70" s="1">
@@ -6443,7 +6876,7 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B71" s="1">
@@ -6502,7 +6935,7 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="A72" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B72" s="1">
@@ -6561,7 +6994,7 @@
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="A73" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B73" s="1">
@@ -6620,7 +7053,7 @@
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="A74" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B74" s="1">
@@ -6679,7 +7112,7 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B75" s="1">
@@ -6738,7 +7171,7 @@
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B76" s="1">
@@ -6797,7 +7230,7 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="A77" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B77" s="1">
@@ -6856,7 +7289,7 @@
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="A78" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B78" s="1">
@@ -6915,7 +7348,7 @@
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="A79" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B79" s="1">
@@ -6974,7 +7407,7 @@
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="A80" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B80" s="1">
@@ -7033,7 +7466,7 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="A81" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B81" s="1">
@@ -7092,7 +7525,7 @@
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="A82" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B82" s="1">
@@ -7151,7 +7584,7 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="A83" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B83" s="1">
@@ -7210,7 +7643,7 @@
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="A84" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B84" s="1">
@@ -7269,7 +7702,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="A85" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B85" s="1">
@@ -7328,7 +7761,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="A86" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B86" s="1">
@@ -7387,7 +7820,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="A87" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B87" s="1">
@@ -7446,7 +7879,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="A88" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B88" s="1">
@@ -7505,7 +7938,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="A89" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B89" s="1">
@@ -7564,7 +7997,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="A90" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B90" s="1">
@@ -7623,7 +8056,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="A91" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B91" s="1">
@@ -7682,7 +8115,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="A92" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B92" s="1">
@@ -7741,7 +8174,7 @@
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="A93" s="4" t="s">
         <v>631</v>
       </c>
       <c r="B93" s="1">
@@ -7800,7 +8233,7 @@
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="A94" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B94" s="1">
@@ -7859,7 +8292,7 @@
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="A95" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B95" s="1">
@@ -7918,7 +8351,7 @@
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="A96" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B96" s="1">
@@ -7977,7 +8410,7 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="A97" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B97" s="1">
@@ -8036,7 +8469,7 @@
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="A98" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B98" s="1">
@@ -8095,7 +8528,7 @@
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="A99" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B99" s="1">
@@ -8154,7 +8587,7 @@
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="A100" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B100" s="1">
@@ -8213,7 +8646,7 @@
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="A101" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B101" s="1">
@@ -8272,7 +8705,7 @@
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="A102" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B102" s="1">
@@ -8331,7 +8764,7 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="A103" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B103" s="1">
@@ -8390,7 +8823,7 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="A104" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B104" s="1">
@@ -8449,7 +8882,7 @@
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="A105" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B105" s="1">
@@ -8508,7 +8941,7 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="A106" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B106" s="1">
@@ -8567,7 +9000,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="A107" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B107" s="1">
@@ -8626,7 +9059,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="A108" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B108" s="1">
@@ -8685,7 +9118,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="A109" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B109" s="1">
@@ -8744,7 +9177,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="A110" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B110" s="1">
@@ -8803,7 +9236,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="A111" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B111" s="1">
@@ -8862,7 +9295,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="A112" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B112" s="1">
@@ -8921,7 +9354,7 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="A113" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B113" s="1">
@@ -8980,7 +9413,7 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="A114" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B114" s="1">
@@ -9039,7 +9472,7 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="A115" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B115" s="1">
@@ -9098,7 +9531,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="A116" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B116" s="1">
@@ -9157,7 +9590,7 @@
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="A117" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B117" s="1">
@@ -9216,7 +9649,7 @@
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="A118" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B118" s="1">
@@ -9275,7 +9708,7 @@
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="A119" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B119" s="1">
@@ -9334,7 +9767,7 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="A120" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B120" s="1">
@@ -9393,7 +9826,7 @@
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="A121" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B121" s="1">
@@ -9452,7 +9885,7 @@
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+      <c r="A122" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B122" s="1">
@@ -9511,7 +9944,7 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="A123" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B123" s="1">
@@ -9570,7 +10003,7 @@
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="A124" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B124" s="1">
@@ -9629,7 +10062,7 @@
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="A125" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B125" s="1">
@@ -9688,7 +10121,7 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="A126" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B126" s="1">
@@ -9747,7 +10180,7 @@
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+      <c r="A127" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B127" s="1">
@@ -9806,7 +10239,7 @@
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+      <c r="A128" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B128" s="1">
@@ -9865,7 +10298,7 @@
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="A129" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B129" s="1">
@@ -9924,7 +10357,7 @@
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+      <c r="A130" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B130" s="1">
@@ -9983,7 +10416,7 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+      <c r="A131" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B131" s="1">
@@ -10042,7 +10475,7 @@
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+      <c r="A132" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B132" s="1">
@@ -10101,7 +10534,7 @@
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+      <c r="A133" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B133" s="1">
@@ -10160,7 +10593,7 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="A134" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B134" s="1">
@@ -10219,7 +10652,7 @@
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="A135" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B135" s="1">
@@ -10278,7 +10711,7 @@
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+      <c r="A136" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B136" s="1">
@@ -10337,7 +10770,7 @@
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="A137" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B137" s="1">
@@ -10396,7 +10829,7 @@
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+      <c r="A138" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B138" s="1">
@@ -10455,7 +10888,7 @@
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+      <c r="A139" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B139" s="1">
@@ -10514,7 +10947,7 @@
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+      <c r="A140" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B140" s="1">
@@ -10573,7 +11006,7 @@
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+      <c r="A141" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B141" s="1">
@@ -10632,7 +11065,7 @@
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+      <c r="A142" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B142" s="1">
@@ -10691,7 +11124,7 @@
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="A143" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B143" s="1">
@@ -10750,7 +11183,7 @@
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+      <c r="A144" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B144" s="1">
@@ -10809,7 +11242,7 @@
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="A145" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B145" s="1">
@@ -10868,7 +11301,7 @@
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="A146" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B146" s="1">
@@ -10927,7 +11360,7 @@
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+      <c r="A147" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B147" s="1">
@@ -10986,7 +11419,7 @@
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+      <c r="A148" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B148" s="1">
@@ -11045,7 +11478,7 @@
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+      <c r="A149" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B149" s="1">
@@ -11104,7 +11537,7 @@
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="A150" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B150" s="1">
@@ -11163,7 +11596,7 @@
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+      <c r="A151" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B151" s="1">
@@ -11222,7 +11655,7 @@
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+      <c r="A152" s="4" t="s">
         <v>633</v>
       </c>
       <c r="B152" s="1">
@@ -11278,6 +11711,3605 @@
       </c>
       <c r="S152" s="1" t="s">
         <v>616</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B153" s="1">
+        <v>1</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O153" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="P153" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q153" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="R153" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="S153" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B154" s="1">
+        <v>2</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M154" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N154" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O154" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="P154" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q154" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="R154" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="S154" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B155" s="1">
+        <v>3</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N155" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O155" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="P155" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q155" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="R155" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="S155" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B156" s="1">
+        <v>4</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N156" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O156" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="P156" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q156" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="R156" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="S156" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B157" s="1">
+        <v>5</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N157" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="P157" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q157" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="R157" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S157" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B158" s="1">
+        <v>6</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N158" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O158" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="P158" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q158" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="R158" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S158" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B159" s="1">
+        <v>7</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="O159" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="P159" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q159" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="R159" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="S159" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B160" s="1">
+        <v>8</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="P160" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q160" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="R160" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S160" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B161" s="1">
+        <v>9</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P161" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q161" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="R161" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S161" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B162" s="1">
+        <v>10</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="P162" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q162" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="R162" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S162" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B163" s="1">
+        <v>11</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O163" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="P163" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q163" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="R163" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="S163" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B164" s="1">
+        <v>12</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O164" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="P164" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q164" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="R164" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S164" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B165" s="1">
+        <v>13</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O165" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="P165" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q165" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="R165" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S165" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B166" s="1">
+        <v>14</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N166" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P166" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q166" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R166" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S166" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B167" s="1">
+        <v>15</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M167" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="P167" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q167" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="R167" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="S167" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B168" s="1">
+        <v>16</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M168" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O168" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P168" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q168" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="R168" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="S168" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B169" s="1">
+        <v>17</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M169" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="P169" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q169" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="R169" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="S169" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A170" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B170" s="1">
+        <v>18</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M170" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O170" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P170" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q170" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="R170" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="S170" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B171" s="1">
+        <v>19</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O171" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="P171" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q171" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="R171" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S171" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B172" s="1">
+        <v>20</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M172" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P172" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q172" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="R172" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S172" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B173" s="1">
+        <v>21</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M173" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N173" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O173" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="P173" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q173" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="R173" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="S173" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B174" s="1">
+        <v>22</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M174" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N174" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O174" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="P174" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q174" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="R174" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="S174" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B175" s="1">
+        <v>23</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M175" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N175" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O175" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="P175" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q175" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="R175" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="S175" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B176" s="1">
+        <v>24</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M176" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N176" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O176" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P176" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q176" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="R176" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="S176" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B177" s="1">
+        <v>25</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M177" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N177" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O177" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="P177" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q177" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="R177" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S177" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B178" s="1">
+        <v>26</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K178" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L178" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M178" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N178" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O178" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="P178" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q178" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="R178" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="S178" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B179" s="1">
+        <v>27</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M179" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N179" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="O179" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="P179" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q179" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="R179" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S179" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B180" s="1">
+        <v>28</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M180" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N180" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O180" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="P180" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q180" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="R180" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="S180" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B181" s="1">
+        <v>29</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M181" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N181" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O181" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="P181" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q181" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="R181" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="S181" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B182" s="1">
+        <v>30</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L182" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M182" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N182" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O182" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="P182" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q182" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="R182" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="S182" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B183" s="1">
+        <v>1</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L183" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M183" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N183" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O183" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="P183" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q183" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="R183" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="S183" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B184" s="1">
+        <v>2</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M184" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N184" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O184" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="P184" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q184" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="R184" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="S184" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B185" s="1">
+        <v>3</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M185" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N185" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O185" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="P185" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q185" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="R185" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="S185" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B186" s="1">
+        <v>4</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M186" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N186" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O186" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="P186" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q186" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="R186" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S186" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B187" s="1">
+        <v>5</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K187" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="M187" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N187" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O187" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="P187" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q187" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="R187" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S187" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B188" s="1">
+        <v>6</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M188" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O188" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="P188" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q188" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="R188" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S188" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B189" s="1">
+        <v>7</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K189" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M189" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N189" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O189" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="P189" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q189" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="R189" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S189" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B190" s="1">
+        <v>8</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K190" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L190" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M190" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N190" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O190" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="P190" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q190" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="R190" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="S190" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B191" s="1">
+        <v>9</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K191" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L191" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M191" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N191" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O191" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="P191" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q191" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="R191" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="S191" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B192" s="1">
+        <v>10</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K192" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L192" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M192" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N192" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O192" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="P192" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q192" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="R192" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="S192" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B193" s="1">
+        <v>11</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K193" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L193" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M193" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N193" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="O193" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="P193" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q193" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="R193" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="S193" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B194" s="1">
+        <v>12</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K194" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M194" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N194" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O194" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P194" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q194" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="R194" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S194" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B195" s="1">
+        <v>13</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K195" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L195" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M195" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N195" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O195" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="P195" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q195" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="R195" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S195" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B196" s="1">
+        <v>14</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K196" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L196" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M196" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N196" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O196" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="P196" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q196" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="R196" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S196" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B197" s="1">
+        <v>15</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K197" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L197" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M197" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N197" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O197" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="P197" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q197" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="R197" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="S197" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B198" s="1">
+        <v>16</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K198" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L198" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M198" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N198" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O198" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="P198" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q198" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="R198" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="S198" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A199" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B199" s="1">
+        <v>17</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K199" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L199" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M199" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N199" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O199" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="P199" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q199" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="R199" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S199" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B200" s="1">
+        <v>18</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K200" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L200" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M200" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N200" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O200" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="P200" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q200" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="R200" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S200" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B201" s="1">
+        <v>19</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K201" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L201" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M201" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N201" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O201" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="P201" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q201" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R201" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S201" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A202" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B202" s="1">
+        <v>20</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K202" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L202" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M202" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N202" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O202" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="P202" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q202" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="R202" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S202" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A203" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B203" s="1">
+        <v>21</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J203" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K203" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="M203" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N203" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O203" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="P203" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q203" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="R203" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="S203" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A204" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B204" s="1">
+        <v>22</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K204" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L204" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M204" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N204" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O204" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="P204" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q204" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="R204" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="S204" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A205" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B205" s="1">
+        <v>23</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J205" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="K205" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L205" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M205" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N205" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O205" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="P205" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q205" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="R205" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="S205" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B206" s="1">
+        <v>24</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K206" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L206" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M206" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N206" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O206" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P206" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q206" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="R206" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S206" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B207" s="1">
+        <v>25</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K207" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M207" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N207" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="O207" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="P207" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q207" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="R207" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S207" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B208" s="1">
+        <v>26</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K208" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L208" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M208" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N208" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O208" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="P208" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q208" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="R208" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="S208" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B209" s="1">
+        <v>27</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J209" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K209" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M209" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N209" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O209" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="P209" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q209" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="R209" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="S209" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B210" s="1">
+        <v>28</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K210" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M210" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N210" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O210" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="P210" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q210" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="R210" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S210" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B211" s="1">
+        <v>29</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J211" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K211" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M211" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N211" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O211" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="P211" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q211" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="R211" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S211" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B212" s="1">
+        <v>30</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J212" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K212" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L212" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M212" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N212" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O212" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="P212" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q212" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="R212" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S212" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="B213" s="1">
+        <v>31</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J213" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K213" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L213" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M213" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N213" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O213" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="P213" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q213" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="R213" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S213" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
   </sheetData>
